--- a/medicine/Psychotrope/Brasserie_de_Sochaux/Brasserie_de_Sochaux.xlsx
+++ b/medicine/Psychotrope/Brasserie_de_Sochaux/Brasserie_de_Sochaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brasserie de Sochaux est fondée entre 1841 et 1845, par Théodore Ienné (maire de Sochaux entre 1878 et 1884), sur l’emplacement d’une fabrique de toile de coton. La production de cette petite fabrique est alors vendue à la clientèle locale.
 C'est Edmond Ienné, le fils du fondateur qui donna le coup d'envoi à l'expansion et au succès de l'entreprise paternelle. En 1889, après avoir étudié pendant quatre ans en Allemagne et en Autriche les techniques de brassage, il prend la direction de la brasserie. 
@@ -521,7 +533,9 @@
           <t>Les produits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie produisait à l'époque une bière de table, la Bock, une bière de luxe appelée la Cristal Bohême, une bière de printemps, une bière de Noël, mais son fleuron était la spéciale Norbertus. La Schlossbräu y était aussi produite.
 Elle vendait également une limonade commercialisée sous le nom de La Belfortaine, des sodas (Vérigoud puis Canada-Dry) de même que des sirops de bouche. 
